--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N2">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O2">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P2">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q2">
-        <v>8597.678728966341</v>
+        <v>51017.36404212288</v>
       </c>
       <c r="R2">
-        <v>8597.678728966341</v>
+        <v>459156.276379106</v>
       </c>
       <c r="S2">
-        <v>0.06046100973759611</v>
+        <v>0.1646111174365852</v>
       </c>
       <c r="T2">
-        <v>0.06046100973759611</v>
+        <v>0.1646111174365852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N3">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O3">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P3">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q3">
-        <v>33.54166548449572</v>
+        <v>146.06977686823</v>
       </c>
       <c r="R3">
-        <v>33.54166548449572</v>
+        <v>1314.62799181407</v>
       </c>
       <c r="S3">
-        <v>0.0002358733127164778</v>
+        <v>0.0004713044204741606</v>
       </c>
       <c r="T3">
-        <v>0.0002358733127164778</v>
+        <v>0.0004713044204741605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N4">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O4">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P4">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q4">
-        <v>1529.337649318179</v>
+        <v>7208.97291846274</v>
       </c>
       <c r="R4">
-        <v>1529.337649318179</v>
+        <v>64880.75626616467</v>
       </c>
       <c r="S4">
-        <v>0.01075468174868817</v>
+        <v>0.02326025873658316</v>
       </c>
       <c r="T4">
-        <v>0.01075468174868817</v>
+        <v>0.02326025873658316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N5">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O5">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P5">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q5">
-        <v>583.8848088658294</v>
+        <v>3260.817055917385</v>
       </c>
       <c r="R5">
-        <v>583.8848088658294</v>
+        <v>29347.35350325647</v>
       </c>
       <c r="S5">
-        <v>0.004106022826316469</v>
+        <v>0.01052125583924036</v>
       </c>
       <c r="T5">
-        <v>0.004106022826316469</v>
+        <v>0.01052125583924036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N6">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O6">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P6">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q6">
-        <v>39515.90644755641</v>
+        <v>55312.20933753451</v>
       </c>
       <c r="R6">
-        <v>39515.90644755641</v>
+        <v>497809.8840378107</v>
       </c>
       <c r="S6">
-        <v>0.2778856572607574</v>
+        <v>0.1784687382009831</v>
       </c>
       <c r="T6">
-        <v>0.2778856572607574</v>
+        <v>0.1784687382009831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N7">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O7">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P7">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q7">
-        <v>154.1612983182398</v>
+        <v>158.3665135923455</v>
       </c>
       <c r="R7">
-        <v>154.1612983182398</v>
+        <v>1425.29862233111</v>
       </c>
       <c r="S7">
-        <v>0.001084100494169098</v>
+        <v>0.0005109807073812786</v>
       </c>
       <c r="T7">
-        <v>0.001084100494169098</v>
+        <v>0.0005109807073812785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N8">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O8">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P8">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q8">
-        <v>7029.009268929568</v>
+        <v>7815.853026930242</v>
       </c>
       <c r="R8">
-        <v>7029.009268929568</v>
+        <v>70342.67724237218</v>
       </c>
       <c r="S8">
-        <v>0.0494297369384838</v>
+        <v>0.02521840013962368</v>
       </c>
       <c r="T8">
-        <v>0.0494297369384838</v>
+        <v>0.02521840013962368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N9">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O9">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P9">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q9">
-        <v>2683.600796289047</v>
+        <v>3535.325648329994</v>
       </c>
       <c r="R9">
-        <v>2683.600796289047</v>
+        <v>31817.93083496995</v>
       </c>
       <c r="S9">
-        <v>0.01887174654824067</v>
+        <v>0.01140697714200454</v>
       </c>
       <c r="T9">
-        <v>0.01887174654824067</v>
+        <v>0.01140697714200454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N10">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O10">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P10">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q10">
-        <v>53708.66156861952</v>
+        <v>133576.4070946107</v>
       </c>
       <c r="R10">
-        <v>53708.66156861952</v>
+        <v>1202187.663851496</v>
       </c>
       <c r="S10">
-        <v>0.3776926322163197</v>
+        <v>0.4309936831870296</v>
       </c>
       <c r="T10">
-        <v>0.3776926322163197</v>
+        <v>0.4309936831870296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N11">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O11">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P11">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q11">
-        <v>209.5307369284791</v>
+        <v>382.4477478503168</v>
       </c>
       <c r="R11">
-        <v>209.5307369284791</v>
+        <v>3442.029730652851</v>
       </c>
       <c r="S11">
-        <v>0.001473472122548307</v>
+        <v>0.00123399458824973</v>
       </c>
       <c r="T11">
-        <v>0.001473472122548307</v>
+        <v>0.00123399458824973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N12">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O12">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P12">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q12">
-        <v>9553.587755570084</v>
+        <v>18874.92071318182</v>
       </c>
       <c r="R12">
-        <v>9553.587755570084</v>
+        <v>169874.2864186364</v>
       </c>
       <c r="S12">
-        <v>0.06718319915495917</v>
+        <v>0.0609012607464092</v>
       </c>
       <c r="T12">
-        <v>0.06718319915495917</v>
+        <v>0.0609012607464092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N13">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O13">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P13">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q13">
-        <v>3647.457945687063</v>
+        <v>8537.646636596908</v>
       </c>
       <c r="R13">
-        <v>3647.457945687063</v>
+        <v>76838.81972937218</v>
       </c>
       <c r="S13">
-        <v>0.02564982913686646</v>
+        <v>0.02754731804584313</v>
       </c>
       <c r="T13">
-        <v>0.02564982913686646</v>
+        <v>0.02754731804584313</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>300.875752717274</v>
+        <v>417.3096593333333</v>
       </c>
       <c r="N14">
-        <v>300.875752717274</v>
+        <v>1251.928978</v>
       </c>
       <c r="O14">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="P14">
-        <v>0.8001977251764101</v>
+        <v>0.8277575129472603</v>
       </c>
       <c r="Q14">
-        <v>11967.4995818765</v>
+        <v>16638.09160458967</v>
       </c>
       <c r="R14">
-        <v>11967.4995818765</v>
+        <v>149742.824441307</v>
       </c>
       <c r="S14">
-        <v>0.08415842596173673</v>
+        <v>0.0536839741226624</v>
       </c>
       <c r="T14">
-        <v>0.08415842596173673</v>
+        <v>0.0536839741226624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.17379052744065</v>
+        <v>1.194815333333333</v>
       </c>
       <c r="N15">
-        <v>1.17379052744065</v>
+        <v>3.584446</v>
       </c>
       <c r="O15">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="P15">
-        <v>0.003121768708209039</v>
+        <v>0.002369984366839822</v>
       </c>
       <c r="Q15">
-        <v>46.68816785497678</v>
+        <v>47.63715989303111</v>
       </c>
       <c r="R15">
-        <v>46.68816785497678</v>
+        <v>428.73443903728</v>
       </c>
       <c r="S15">
-        <v>0.0003283227787751552</v>
+        <v>0.0001537046507346527</v>
       </c>
       <c r="T15">
-        <v>0.0003283227787751552</v>
+        <v>0.0001537046507346527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.5191684759305</v>
+        <v>58.96764933333333</v>
       </c>
       <c r="N16">
-        <v>53.5191684759305</v>
+        <v>176.902948</v>
       </c>
       <c r="O16">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="P16">
-        <v>0.142337547911397</v>
+        <v>0.1169656960121252</v>
       </c>
       <c r="Q16">
-        <v>2128.754545933552</v>
+        <v>2351.033889037404</v>
       </c>
       <c r="R16">
-        <v>2128.754545933552</v>
+        <v>21159.30500133664</v>
       </c>
       <c r="S16">
-        <v>0.01496993006926583</v>
+        <v>0.007585776389509129</v>
       </c>
       <c r="T16">
-        <v>0.01496993006926583</v>
+        <v>0.007585776389509129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.433047908131</v>
+        <v>26.67269233333333</v>
       </c>
       <c r="N17">
-        <v>20.433047908131</v>
+        <v>80.01807700000001</v>
       </c>
       <c r="O17">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="P17">
-        <v>0.05434295820398395</v>
+        <v>0.05290680667377473</v>
       </c>
       <c r="Q17">
-        <v>812.7357890710516</v>
+        <v>1063.437398242818</v>
       </c>
       <c r="R17">
-        <v>812.7357890710516</v>
+        <v>9570.93658418536</v>
       </c>
       <c r="S17">
-        <v>0.005715359692560348</v>
+        <v>0.003431255646686698</v>
       </c>
       <c r="T17">
-        <v>0.005715359692560348</v>
+        <v>0.003431255646686698</v>
       </c>
     </row>
   </sheetData>
